--- a/Strompreise_DayAhead.xlsx
+++ b/Strompreise_DayAhead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\Studium\HAW\4. Semester\IPJ2\Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CAEE66-73BF-421A-8CF9-C2D13ADF0157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580219A7-464F-44AF-9294-8618A46FE74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5A0A962-B726-4E43-BFC7-83EB7A3F5FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F5A0A962-B726-4E43-BFC7-83EB7A3F5FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,13 +889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005CC3EA-D76E-475E-A3C8-D0D5AB48141A}">
   <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -903,15 +903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -919,7 +919,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
         <v>45.21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -935,7 +935,7 @@
         <v>85.41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>91.37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -951,7 +951,7 @@
         <v>88.72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>86.33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -967,7 +967,7 @@
         <v>102.23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>109.39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -983,7 +983,7 @@
         <v>111.84</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -991,7 +991,7 @@
         <v>109.65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -999,7 +999,7 @@
         <v>106.04</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>74.569999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>76.150000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>101.14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>99.61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>92.74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>78.510000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>73.66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>49.84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>52.28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>78.02</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>81.03</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>77.97</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>72.040000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>61.66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>45.29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>79.16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>70.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>72.13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>61.96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>72.23</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>61.06</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>66.650000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>53.18</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>65.290000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>63.22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>57.57</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>43.74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>66.27</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>73.84</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>71.010000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>64.22</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>75.89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>82.84</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>45.61</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>71.67</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>86.47</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>72.459999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>67.06</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>50.36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>61.81</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>91.34</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>81.39</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>68.540000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>37.58</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>25.87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>84.56</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>66.14</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>87.37</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>64.53</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>46.59</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>84.87</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>57.99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>69.91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>58.81</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>70.19</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>56.26</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>102.01</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>95.82</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>58.82</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>58.24</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>98.53</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>97.76</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>90.63</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>86.44</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>62.17</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>69.38</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>36.42</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>77.81</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>75.150000000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>93.18</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>93.04</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>91.82</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>61.86</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>75.989999999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>46.41</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>42.93</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>49.56</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>69.010000000000005</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>64.98</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>79.81</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>102.19</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>72.260000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>57.93</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>106.88</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>79.180000000000007</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>97.45</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>117.14</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>81.72</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>86.37</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>83.15</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>45.97</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>92.65</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>61.63</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>91.19</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>94.78</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>94.34</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>84.31</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>97.14</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>50.05</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>92.09</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>103.01</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>91.79</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>63.05</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>70.55</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>43.77</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>91.89</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>85.68</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>87.62</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>88.42</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>77.69</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>79.010000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>91.27</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>77.67</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>54.33</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>91.23</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>79.510000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>65.86</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>79.28</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>80.83</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>71.62</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>77.239999999999995</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>94.87</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>93.81</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>75.290000000000006</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>62.09</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>86.98</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>92.91</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>92.06</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>99.74</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>108.01</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>85.53</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>108.04</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>93.24</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>92.11</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>63.04</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>49.81</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>99.59</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>95.92</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>112.91</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>106.64</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>61.65</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>115.07</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>158.38999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>125.84</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>64.42</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>76.13</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>79.42</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>99.73</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>59.04</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>80.94</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>112.34</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>90.81</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>62.13</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>97.47</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>77.98</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>73.37</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>70.02</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>76.180000000000007</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>121.36</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>91.77</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>75.14</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>58.35</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>67.84</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>95.86</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>72.66</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>96.13</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>85.93</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>91.32</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>83.07</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>59.73</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>105.59</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>35.08</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>71.52</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>102.27</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>85.52</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>103.01</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>101.68</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>112.72</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>101.72</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>111.35</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>141.18</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>124.69</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>105.79</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>75.06</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>106.76</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>93.43</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>125.87</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>164.78</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>231.09</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>159.62</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>113.39</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>114.47</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>114.17</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>121.77</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>166.12</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>150.09</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>122.02</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>124.17</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>94.36</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>63.48</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>104.59</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>123.99</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>115.03</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>123.32</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>111.3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>76.02</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>112.75</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>119.99</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>96.07</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>130.25</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>104.24</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>94.59</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>109.15</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -3607,15 +3607,15 @@
         <v>144.07</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340">
-        <v>182.47</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+        <v>142.01</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>86.37</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>71.510000000000005</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>99.07</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>99.59</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -3663,31 +3663,31 @@
         <v>149.93</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347">
-        <v>266.54000000000002</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348">
-        <v>395.34</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104.45</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349">
-        <v>178.47</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98.36</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>101.23</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>48.67</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>54.97</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>76.37</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>22.93</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>102.49</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>112.89</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>121.71</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>122.64</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>105.28</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
     </row>
   </sheetData>

--- a/Strompreise_DayAhead.xlsx
+++ b/Strompreise_DayAhead.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Privat\Studium\HAW\4. Semester\IPJ2\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicki\OneDrive\Dokumente\IPJ 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580219A7-464F-44AF-9294-8618A46FE74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A956D10-3DFF-4B6E-B98A-06B83E46E448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F5A0A962-B726-4E43-BFC7-83EB7A3F5FA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5A0A962-B726-4E43-BFC7-83EB7A3F5FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,13 +889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005CC3EA-D76E-475E-A3C8-D0D5AB48141A}">
   <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="D313" sqref="D313"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -911,7 +911,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -919,7 +919,7 @@
         <v>53.07</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
         <v>45.21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -935,7 +935,7 @@
         <v>85.41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>91.37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -951,7 +951,7 @@
         <v>88.72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -959,7 +959,7 @@
         <v>86.33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -967,7 +967,7 @@
         <v>102.23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>109.39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -983,7 +983,7 @@
         <v>111.84</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -991,7 +991,7 @@
         <v>109.65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -999,7 +999,7 @@
         <v>106.04</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>74.569999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>76.150000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>101.14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>99.61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>92.74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>78.510000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>73.66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>49.84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>52.28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>78.02</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>68.349999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>81.03</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>77.97</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>72.040000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>61.66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>45.29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>79.16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>70.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>72.13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>61.96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>72.23</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>61.06</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>66.650000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>53.18</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>65.290000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>63.22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>57.57</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>43.74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>66.27</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>73.84</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>71.010000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>64.22</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>75.89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>82.84</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>45.61</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>71.67</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>86.47</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>72.459999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>67.06</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>50.36</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>61.81</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>81.569999999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>91.34</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>81.39</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>68.540000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>37.58</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>25.87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>84.56</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>66.14</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>51.35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>87.37</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>64.53</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>46.59</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>84.87</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>57.99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>69.91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>58.81</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>60.95</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>70.19</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>56.26</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>102.01</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>95.82</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>58.82</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>58.24</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>98.53</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>97.76</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>90.63</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>86.44</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>62.17</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>69.38</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>36.42</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>77.81</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>75.150000000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>54.16</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>93.18</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>93.04</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>91.82</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>61.86</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>75.989999999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>46.41</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>42.93</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>49.56</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>69.010000000000005</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>64.98</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>79.81</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>85.84</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>102.19</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>72.260000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>57.93</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>106.88</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>79.180000000000007</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>97.45</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>117.14</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>81.72</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>86.37</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>83.15</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>45.97</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>92.65</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>61.63</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>91.19</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>94.78</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>94.34</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>84.31</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>97.14</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>50.05</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>92.09</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>103.01</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>91.79</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>63.05</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>70.55</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>43.77</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>91.89</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>85.68</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>87.62</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>88.42</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>77.69</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>79.010000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>91.27</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>90.6</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>77.67</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>50.3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>54.33</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>91.23</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>79.510000000000005</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>65.86</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>79.28</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>80.83</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>71.62</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>77.239999999999995</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>94.87</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>93.81</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>75.290000000000006</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>62.09</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>86.98</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>92.91</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>53.32</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>92.06</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>99.74</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>108.01</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>85.53</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>108.04</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>93.24</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>88.24</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>92.11</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>63.04</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>49.81</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>99.59</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>95.92</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>112.91</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>106.64</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>61.65</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>115.07</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>158.38999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>125.84</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>64.42</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>76.13</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>79.42</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>99.73</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>59.04</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>80.94</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>112.34</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>90.81</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>62.13</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>97.47</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>77.98</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>73.37</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>70.02</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>76.180000000000007</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>121.36</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>91.77</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>75.14</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>58.35</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>67.84</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>95.86</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>72.66</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>96.13</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>85.93</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>91.32</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>83.07</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>59.73</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>105.59</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>35.08</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>71.52</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>102.27</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>85.52</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>103.01</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>101.68</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>112.72</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>101.72</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>90.33</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>111.35</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>141.18</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>124.69</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>105.79</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>75.06</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>106.76</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>93.43</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>125.87</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -3383,15 +3383,15 @@
         <v>164.78</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312">
-        <v>231.09</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150.18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>159.62</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>113.39</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>114.47</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>114.17</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>121.77</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>166.12</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>150.09</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>122.02</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>124.17</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>94.36</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>63.48</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>104.59</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>123.99</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>115.03</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>123.32</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>111.3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>76.02</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>55.01</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>112.75</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>119.99</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>96.07</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>130.25</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>104.24</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>94.59</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>109.15</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>144.07</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>142.01</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>86.37</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>71.510000000000005</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>99.07</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>99.59</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>149.93</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>101.94</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>104.45</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>98.36</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>101.23</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>48.67</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>54.97</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>76.37</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>22.93</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>102.49</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>112.89</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>121.71</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>122.64</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>105.28</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
     </row>
   </sheetData>
